--- a/app/config/tables/MIFCRIANCA_VISIT/forms/MIFCRIANCA_VISIT/MIFCRIANCA_VISIT.xlsx
+++ b/app/config/tables/MIFCRIANCA_VISIT/forms/MIFCRIANCA_VISIT/MIFCRIANCA_VISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8A1782-FA83-4910-B0C0-A4BCA2DE6DB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3823854-FA53-4FEE-A284-656E96D02CDC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="196">
   <si>
     <t>setting_name</t>
   </si>
@@ -246,13 +246,379 @@
     <t>Crianca</t>
   </si>
   <si>
-    <t>Woman in the fertile age - children</t>
-  </si>
-  <si>
-    <t>Mulher na idade fertil - criancas</t>
-  </si>
-  <si>
     <t>MIFCRIANCA_VISIT</t>
+  </si>
+  <si>
+    <t>visitstatus</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>Status of the child</t>
+  </si>
+  <si>
+    <t>Estado da crianca</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>EXITDATA</t>
+  </si>
+  <si>
+    <t>Exit date</t>
+  </si>
+  <si>
+    <t>Data de saída</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>EXITPRECIS</t>
+  </si>
+  <si>
+    <t>Precision of exit date</t>
+  </si>
+  <si>
+    <t>Certo da data de saída</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>EXITMUDO</t>
+  </si>
+  <si>
+    <t>Where?</t>
+  </si>
+  <si>
+    <t>Onde?</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Presente</t>
+  </si>
+  <si>
+    <t>Moved out</t>
+  </si>
+  <si>
+    <t>Mudou</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Faleceu</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>Ausente</t>
+  </si>
+  <si>
+    <t>Travelling</t>
+  </si>
+  <si>
+    <t>Viagem</t>
+  </si>
+  <si>
+    <t>Not visited</t>
+  </si>
+  <si>
+    <t>Não visitada</t>
+  </si>
+  <si>
+    <t>vcard</t>
+  </si>
+  <si>
+    <t>VIC</t>
+  </si>
+  <si>
+    <t>Card seen</t>
+  </si>
+  <si>
+    <t>Cartão visto</t>
+  </si>
+  <si>
+    <t>NTN</t>
+  </si>
+  <si>
+    <t>Has no card and no vaccines</t>
+  </si>
+  <si>
+    <t>Não tem cartão e não tem vacinas</t>
+  </si>
+  <si>
+    <t>NTS</t>
+  </si>
+  <si>
+    <t>Has no card, some vaccines</t>
+  </si>
+  <si>
+    <t>Não tem cartão, mas tem vacinas</t>
+  </si>
+  <si>
+    <t>NVC</t>
+  </si>
+  <si>
+    <t>Not brought card</t>
+  </si>
+  <si>
+    <t>Não trouxe o cartão</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Lost card</t>
+  </si>
+  <si>
+    <t>Perdeu o cartão</t>
+  </si>
+  <si>
+    <t>VCN</t>
+  </si>
+  <si>
+    <t>Card seen and NO vaccines</t>
+  </si>
+  <si>
+    <t>Cartão visto, mas sem vacinas registadas</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Vaccination cart</t>
+  </si>
+  <si>
+    <t>Cartão de vacina</t>
+  </si>
+  <si>
+    <t>YesNoU</t>
+  </si>
+  <si>
+    <t>TENDAYN</t>
+  </si>
+  <si>
+    <t>Dormir na tenda ontem?</t>
+  </si>
+  <si>
+    <t>bednettime</t>
+  </si>
+  <si>
+    <t>TENDA</t>
+  </si>
+  <si>
+    <t>Period using bednet</t>
+  </si>
+  <si>
+    <t>Todo tempo?</t>
+  </si>
+  <si>
+    <t>data('TENDAYN') == '1'</t>
+  </si>
+  <si>
+    <t>bednet</t>
+  </si>
+  <si>
+    <t>TENDATIPO</t>
+  </si>
+  <si>
+    <t>Type of bednet</t>
+  </si>
+  <si>
+    <t>Qual tipo?</t>
+  </si>
+  <si>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>Did the child sleep under a bednet last night?</t>
+  </si>
+  <si>
+    <t>Impregnated net</t>
+  </si>
+  <si>
+    <t>Tenda impregnada</t>
+  </si>
+  <si>
+    <t>Simple bednet</t>
+  </si>
+  <si>
+    <t>Tenda simples</t>
+  </si>
+  <si>
+    <t>Unknown type</t>
+  </si>
+  <si>
+    <t>Não sabe</t>
+  </si>
+  <si>
+    <t>All year</t>
+  </si>
+  <si>
+    <t>Tudo Ano</t>
+  </si>
+  <si>
+    <t>Rainy season</t>
+  </si>
+  <si>
+    <t>Chuva</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Outra/o</t>
+  </si>
+  <si>
+    <t>Does the child recieve supplementary foods?</t>
+  </si>
+  <si>
+    <t>COMSUP</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Don't know</t>
+  </si>
+  <si>
+    <t>data('ESTADO') ==  '2' || data('ESTADO') ==  '3'</t>
+  </si>
+  <si>
+    <t>data('ESTADOVIS') ==  '2'</t>
+  </si>
+  <si>
+    <t>PARMA</t>
+  </si>
+  <si>
+    <t>Has the child stopped breastfeeding?</t>
+  </si>
+  <si>
+    <t>PORMO</t>
+  </si>
+  <si>
+    <t>PORCA</t>
+  </si>
+  <si>
+    <t>Are pigs living in the house?</t>
+  </si>
+  <si>
+    <t>Are there pigs living in the compound?</t>
+  </si>
+  <si>
+    <t>Is the child living with their mother?</t>
+  </si>
+  <si>
+    <t>Has the child been amitted to the hostpital since last visist?</t>
+  </si>
+  <si>
+    <t>HOSP</t>
+  </si>
+  <si>
+    <t>MOMA</t>
+  </si>
+  <si>
+    <t>BRACOCRI</t>
+  </si>
+  <si>
+    <t>CICBCGN</t>
+  </si>
+  <si>
+    <t>CICBCGV</t>
+  </si>
+  <si>
+    <t>CICBCGH</t>
+  </si>
+  <si>
+    <t>LINFADENOP</t>
+  </si>
+  <si>
+    <t>Limphadenopaty</t>
+  </si>
+  <si>
+    <t>LINFADESUP</t>
+  </si>
+  <si>
+    <t>Suppurative limfadenopaty</t>
+  </si>
+  <si>
+    <t>PASSARAMPO</t>
+  </si>
+  <si>
+    <t>Has the child had measles</t>
+  </si>
+  <si>
+    <t>data('ESTADOVIS') ==  '1'</t>
+  </si>
+  <si>
+    <t>What is the childs MUAC Mesurements in MM</t>
+  </si>
+  <si>
+    <t>Does the child have a BSG scar?</t>
+  </si>
+  <si>
+    <t>data('CICBCGN') ==  '1'</t>
+  </si>
+  <si>
+    <t>Vertical measurement of the scar in MM</t>
+  </si>
+  <si>
+    <t>Horizontal measurement of the scar in MM</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Makes the date widget DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>Day certain</t>
+  </si>
+  <si>
+    <t>Dia certo</t>
+  </si>
+  <si>
+    <t>Month certain</t>
+  </si>
+  <si>
+    <t>Mes certo</t>
+  </si>
+  <si>
+    <t>Season certain</t>
+  </si>
+  <si>
+    <t>Estação certo</t>
+  </si>
+  <si>
+    <t>Year certain</t>
+  </si>
+  <si>
+    <t>Ano certo</t>
+  </si>
+  <si>
+    <t>Woman in the fertile age - children_visit</t>
+  </si>
+  <si>
+    <t>Mulher na idade fertil - criancas_visitas</t>
   </si>
 </sst>
 </file>
@@ -309,7 +675,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,6 +685,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,7 +737,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -365,7 +755,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -651,9 +1045,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -707,7 +1101,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -715,10 +1109,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -767,11 +1161,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,6 +1215,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
       <c r="B2" t="s">
         <v>66</v>
       </c>
@@ -838,6 +1233,570 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" t="s">
+        <v>149</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" t="s">
+        <v>158</v>
+      </c>
+      <c r="G29" t="s">
+        <v>159</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" t="s">
+        <v>161</v>
+      </c>
+      <c r="G32" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" t="s">
+        <v>160</v>
+      </c>
+      <c r="G35" t="s">
+        <v>163</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" t="s">
+        <v>167</v>
+      </c>
+      <c r="G38" t="s">
+        <v>164</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G41" t="s">
+        <v>165</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" t="s">
+        <v>168</v>
+      </c>
+      <c r="G45" t="s">
+        <v>179</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" t="s">
+        <v>123</v>
+      </c>
+      <c r="F48" t="s">
+        <v>169</v>
+      </c>
+      <c r="G48" t="s">
+        <v>180</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" t="s">
+        <v>170</v>
+      </c>
+      <c r="G52" t="s">
+        <v>182</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F53" t="s">
+        <v>171</v>
+      </c>
+      <c r="G53" t="s">
+        <v>183</v>
+      </c>
+      <c r="H53" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" t="s">
+        <v>172</v>
+      </c>
+      <c r="G58" t="s">
+        <v>173</v>
+      </c>
+      <c r="H58" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" t="s">
+        <v>123</v>
+      </c>
+      <c r="F61" t="s">
+        <v>174</v>
+      </c>
+      <c r="G61" t="s">
+        <v>175</v>
+      </c>
+      <c r="H61" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" t="s">
+        <v>123</v>
+      </c>
+      <c r="F64" t="s">
+        <v>176</v>
+      </c>
+      <c r="G64" t="s">
+        <v>177</v>
+      </c>
+      <c r="H64" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" t="s">
         <v>67</v>
       </c>
     </row>
@@ -918,11 +1877,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E9C5AA-9540-45DB-BCC0-5EA98DDA6B0B}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A2:XFD3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,9 +1906,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="9"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>185</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -958,11 +1927,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,6 +1954,375 @@
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="str">
+        <f>"6"</f>
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/MIFCRIANCA_VISIT/forms/MIFCRIANCA_VISIT/MIFCRIANCA_VISIT.xlsx
+++ b/app/config/tables/MIFCRIANCA_VISIT/forms/MIFCRIANCA_VISIT/MIFCRIANCA_VISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3823854-FA53-4FEE-A284-656E96D02CDC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708CAD0B-0998-4A87-8C84-B7A0DF629EEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="176">
   <si>
     <t>setting_name</t>
   </si>
@@ -108,9 +108,6 @@
     <t>branch_label</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
     <t>font-size</t>
   </si>
   <si>
@@ -159,63 +156,6 @@
     <t>fieldName</t>
   </si>
   <si>
-    <t>OUTSTATUS</t>
-  </si>
-  <si>
-    <t>OUTDATE</t>
-  </si>
-  <si>
-    <t>OUTDATE_PRECIS</t>
-  </si>
-  <si>
-    <t>ABMES</t>
-  </si>
-  <si>
-    <t>LITTERSIZE</t>
-  </si>
-  <si>
-    <t>assign</t>
-  </si>
-  <si>
-    <t>inf1</t>
-  </si>
-  <si>
-    <t>inf2</t>
-  </si>
-  <si>
-    <t>GRINFOS</t>
-  </si>
-  <si>
-    <t>GRCONS</t>
-  </si>
-  <si>
-    <t>CART_ANC</t>
-  </si>
-  <si>
-    <t>FEDEP_C</t>
-  </si>
-  <si>
-    <t>FEDEP_M</t>
-  </si>
-  <si>
-    <t>QVFANSI_C</t>
-  </si>
-  <si>
-    <t>LOCPAR</t>
-  </si>
-  <si>
-    <t>ASSISTPART</t>
-  </si>
-  <si>
-    <t>CDG_C</t>
-  </si>
-  <si>
-    <t>CDG_M</t>
-  </si>
-  <si>
-    <t>GRVAC</t>
-  </si>
-  <si>
     <t>display.title.text.english</t>
   </si>
   <si>
@@ -252,9 +192,6 @@
     <t>visitstatus</t>
   </si>
   <si>
-    <t>ESTADO</t>
-  </si>
-  <si>
     <t>Status of the child</t>
   </si>
   <si>
@@ -393,9 +330,6 @@
     <t>Cartão visto, mas sem vacinas registadas</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>Vaccination cart</t>
   </si>
   <si>
@@ -501,12 +435,6 @@
     <t>Don't know</t>
   </si>
   <si>
-    <t>data('ESTADO') ==  '2' || data('ESTADO') ==  '3'</t>
-  </si>
-  <si>
-    <t>data('ESTADOVIS') ==  '2'</t>
-  </si>
-  <si>
     <t>PARMA</t>
   </si>
   <si>
@@ -567,9 +495,6 @@
     <t>Has the child had measles</t>
   </si>
   <si>
-    <t>data('ESTADOVIS') ==  '1'</t>
-  </si>
-  <si>
     <t>What is the childs MUAC Mesurements in MM</t>
   </si>
   <si>
@@ -619,6 +544,21 @@
   </si>
   <si>
     <t>Mulher na idade fertil - criancas_visitas</t>
+  </si>
+  <si>
+    <t>CARTVAC</t>
+  </si>
+  <si>
+    <t>PRES</t>
+  </si>
+  <si>
+    <t>data('PRES') ==  '2' || data('PRES') ==  '3'</t>
+  </si>
+  <si>
+    <t>data('PRES') ==  '2'</t>
+  </si>
+  <si>
+    <t>data('PRES') ==  '1'</t>
   </si>
 </sst>
 </file>
@@ -1068,13 +1008,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>16</v>
@@ -1085,7 +1025,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1101,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1109,10 +1049,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1128,7 +1068,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1139,18 +1079,18 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1163,9 +1103,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1142,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>11</v>
@@ -1211,34 +1151,34 @@
         <v>23</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1246,38 +1186,38 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1285,58 +1225,58 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1344,26 +1284,26 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="G16" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="H16" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1371,16 +1311,16 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F19" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="G19" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="H19" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1388,24 +1328,24 @@
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="G20" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="H20" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1413,33 +1353,33 @@
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="F22" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="G22" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="H22" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1447,26 +1387,26 @@
         <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F26" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="G26" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1474,26 +1414,26 @@
         <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F29" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="G29" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1501,26 +1441,26 @@
         <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F32" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="G32" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1528,26 +1468,26 @@
         <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F35" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="G35" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1555,26 +1495,26 @@
         <v>22</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F38" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="G38" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1582,60 +1522,60 @@
         <v>22</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F41" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="G41" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F45" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="G45" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -1643,84 +1583,84 @@
         <v>22</v>
       </c>
       <c r="E48" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F48" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="G48" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F52" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="G52" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F53" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="G53" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -1728,26 +1668,26 @@
         <v>22</v>
       </c>
       <c r="E58" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F58" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="G58" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -1755,26 +1695,26 @@
         <v>22</v>
       </c>
       <c r="E61" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F61" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="G61" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -1782,22 +1722,22 @@
         <v>22</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F64" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="G64" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1828,31 +1768,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1894,30 +1834,30 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1931,7 +1871,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,7 +1890,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -1958,371 +1898,371 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B4" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B6" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B7" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B14" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B15" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B16" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B17" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B18" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B19" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B20" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B21" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B22" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B23" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="D23" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B24" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="D24" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B25" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="D25" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B26" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D26" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2335,9 +2275,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,10 +2300,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -2374,7 +2314,7 @@
         <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -2382,7 +2322,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -2393,10 +2333,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -2404,10 +2344,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -2415,10 +2355,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -2426,10 +2366,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -2437,7 +2377,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -2448,7 +2388,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -2459,10 +2399,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -2470,7 +2410,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -2481,7 +2421,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -2492,7 +2432,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -2503,10 +2443,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -2514,10 +2454,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -2525,10 +2465,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -2536,10 +2476,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -2547,10 +2487,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -2558,12 +2498,34 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="b">
         <v>0</v>
       </c>
     </row>

--- a/app/config/tables/MIFCRIANCA_VISIT/forms/MIFCRIANCA_VISIT/MIFCRIANCA_VISIT.xlsx
+++ b/app/config/tables/MIFCRIANCA_VISIT/forms/MIFCRIANCA_VISIT/MIFCRIANCA_VISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708CAD0B-0998-4A87-8C84-B7A0DF629EEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144F1BB8-293C-4253-90AF-E0F52D54B763}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="173">
   <si>
     <t>setting_name</t>
   </si>
@@ -175,15 +175,6 @@
   </si>
   <si>
     <t>end screen</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>Crianca</t>
   </si>
   <si>
     <t>MIFCRIANCA_VISIT</t>
@@ -1025,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1041,7 +1032,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1049,10 +1040,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1103,9 +1094,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,23 +1153,41 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>48</v>
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>169</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>46</v>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1186,87 +1195,75 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>172</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" t="s">
-        <v>63</v>
+      <c r="B9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" t="s">
-        <v>67</v>
+      <c r="B11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>113</v>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1284,26 +1281,41 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="G16" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="H16" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>47</v>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1311,63 +1323,48 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G19" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H19" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" t="s">
-        <v>107</v>
+      <c r="B20" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" t="s">
-        <v>111</v>
-      </c>
-      <c r="H22" t="s">
-        <v>112</v>
+      <c r="B22" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>113</v>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1387,16 +1384,16 @@
         <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F26" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G26" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1414,7 +1411,7 @@
         <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F29" t="s">
         <v>134</v>
@@ -1441,16 +1438,16 @@
         <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F32" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1468,16 +1465,16 @@
         <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F35" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G35" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1495,16 +1492,16 @@
         <v>22</v>
       </c>
       <c r="E38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F38" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1514,39 +1511,36 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" t="s">
-        <v>101</v>
-      </c>
-      <c r="F41" t="s">
-        <v>142</v>
-      </c>
-      <c r="G41" t="s">
-        <v>141</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
-      <c r="B42" t="s">
-        <v>47</v>
+      <c r="D42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" t="s">
+        <v>151</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" t="s">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1556,16 +1550,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>64</v>
+        <v>22</v>
+      </c>
+      <c r="E45" t="s">
+        <v>98</v>
       </c>
       <c r="F45" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G45" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1575,86 +1572,86 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" t="s">
-        <v>101</v>
-      </c>
-      <c r="F48" t="s">
-        <v>145</v>
-      </c>
-      <c r="G48" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" t="s">
+        <v>154</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" t="s">
+        <v>144</v>
+      </c>
+      <c r="G50" t="s">
         <v>155</v>
       </c>
-      <c r="H48" s="17" t="s">
+      <c r="H50" s="17" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>64</v>
-      </c>
-      <c r="F52" t="s">
-        <v>146</v>
-      </c>
-      <c r="G52" t="s">
-        <v>157</v>
-      </c>
-      <c r="H52" s="17" t="s">
-        <v>157</v>
+      <c r="B52" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>64</v>
-      </c>
-      <c r="F53" t="s">
-        <v>147</v>
-      </c>
-      <c r="G53" t="s">
-        <v>158</v>
-      </c>
-      <c r="H53" s="17" t="s">
-        <v>158</v>
+      <c r="B53" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>113</v>
+      <c r="D55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" t="s">
+        <v>145</v>
+      </c>
+      <c r="G55" t="s">
+        <v>146</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -1668,16 +1665,16 @@
         <v>22</v>
       </c>
       <c r="E58" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F58" t="s">
+        <v>147</v>
+      </c>
+      <c r="G58" t="s">
         <v>148</v>
       </c>
-      <c r="G58" t="s">
-        <v>149</v>
-      </c>
       <c r="H58" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -1695,43 +1692,16 @@
         <v>22</v>
       </c>
       <c r="E61" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F61" t="s">
+        <v>149</v>
+      </c>
+      <c r="G61" t="s">
         <v>150</v>
       </c>
-      <c r="G61" t="s">
-        <v>151</v>
-      </c>
       <c r="H61" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
-        <v>22</v>
-      </c>
-      <c r="E64" t="s">
-        <v>101</v>
-      </c>
-      <c r="F64" t="s">
-        <v>152</v>
-      </c>
-      <c r="G64" t="s">
-        <v>153</v>
-      </c>
-      <c r="H64" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1851,13 +1821,13 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1898,371 +1868,371 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
         <v>80</v>
-      </c>
-      <c r="B8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B14" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B15" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B16" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B17" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B18" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B19" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B20" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" t="s">
         <v>129</v>
-      </c>
-      <c r="D20" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B21" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B22" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B23" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D23" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B24" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B25" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B26" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D26" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2275,7 +2245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
@@ -2300,7 +2270,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -2311,7 +2281,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -2322,7 +2292,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -2333,10 +2303,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -2344,7 +2314,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -2355,7 +2325,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -2366,7 +2336,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -2377,7 +2347,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -2388,7 +2358,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -2399,7 +2369,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -2410,7 +2380,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -2421,7 +2391,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -2432,7 +2402,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -2443,7 +2413,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -2454,10 +2424,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -2465,7 +2435,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -2476,10 +2446,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -2487,10 +2457,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -2498,7 +2468,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -2509,7 +2479,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -2520,7 +2490,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>

--- a/app/config/tables/MIFCRIANCA_VISIT/forms/MIFCRIANCA_VISIT/MIFCRIANCA_VISIT.xlsx
+++ b/app/config/tables/MIFCRIANCA_VISIT/forms/MIFCRIANCA_VISIT/MIFCRIANCA_VISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144F1BB8-293C-4253-90AF-E0F52D54B763}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C506625B-3972-49C7-9A18-C54D56093A1A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="175">
   <si>
     <t>setting_name</t>
   </si>
@@ -486,9 +486,6 @@
     <t>Has the child had measles</t>
   </si>
   <si>
-    <t>What is the childs MUAC Mesurements in MM</t>
-  </si>
-  <si>
     <t>Does the child have a BSG scar?</t>
   </si>
   <si>
@@ -550,6 +547,15 @@
   </si>
   <si>
     <t>data('PRES') ==  '1'</t>
+  </si>
+  <si>
+    <t>What are the childs MUAC Mesurements in MM</t>
+  </si>
+  <si>
+    <t>REGIDC</t>
+  </si>
+  <si>
+    <t>integer</t>
   </si>
 </sst>
 </file>
@@ -1040,10 +1046,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
         <v>166</v>
-      </c>
-      <c r="D5" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1094,9 +1100,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,7 +1165,7 @@
         <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G3" t="s">
         <v>50</v>
@@ -1173,7 +1179,7 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1212,7 +1218,7 @@
         <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1257,7 +1263,7 @@
         <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G13" t="s">
         <v>96</v>
@@ -1514,7 +1520,7 @@
         <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1531,10 +1537,10 @@
         <v>141</v>
       </c>
       <c r="G42" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1559,10 +1565,10 @@
         <v>142</v>
       </c>
       <c r="G45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1575,7 +1581,7 @@
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -1591,10 +1597,10 @@
         <v>143</v>
       </c>
       <c r="G49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1605,10 +1611,10 @@
         <v>144</v>
       </c>
       <c r="G50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -1723,7 +1729,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1768,6 +1774,7 @@
     <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2"/>
       <c r="D2"/>
+      <c r="F2"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1821,13 +1828,13 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
         <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2184,10 +2191,10 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" t="s">
         <v>158</v>
-      </c>
-      <c r="D23" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2199,10 +2206,10 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" t="s">
         <v>160</v>
-      </c>
-      <c r="D24" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2214,10 +2221,10 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" t="s">
         <v>162</v>
-      </c>
-      <c r="D25" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2229,10 +2236,10 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" t="s">
         <v>164</v>
-      </c>
-      <c r="D26" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2245,9 +2252,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2270,7 +2277,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -2314,7 +2321,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -2496,6 +2503,17 @@
         <v>22</v>
       </c>
       <c r="C22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" t="b">
         <v>0</v>
       </c>
     </row>
